--- a/Our results_Final.xlsx
+++ b/Our results_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Goethe-Money and Finance\Course Carry\Semester IV\III. Topics in Banking and Macro\Data for the papers\Why bank capital matters\EDA\TBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38D4E3E-F1E8-4C62-9997-AF98587CC3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744B989F-4238-4E68-952C-B9E615182361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="729" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,16 @@
     <sheet name="Template" sheetId="1" r:id="rId1"/>
     <sheet name="Table 1" sheetId="11" r:id="rId2"/>
     <sheet name="Table 2" sheetId="12" r:id="rId3"/>
-    <sheet name="Model 1" sheetId="2" r:id="rId4"/>
-    <sheet name="Model 2" sheetId="3" r:id="rId5"/>
-    <sheet name="Model 3" sheetId="4" r:id="rId6"/>
-    <sheet name="Model 4" sheetId="7" r:id="rId7"/>
-    <sheet name="Model 5" sheetId="8" r:id="rId8"/>
-    <sheet name="Model 6" sheetId="9" r:id="rId9"/>
+    <sheet name="Regression Results in One table" sheetId="17" r:id="rId4"/>
+    <sheet name="Model 1" sheetId="2" r:id="rId5"/>
+    <sheet name="Findings Comparison" sheetId="14" r:id="rId6"/>
+    <sheet name="Model 2" sheetId="3" r:id="rId7"/>
+    <sheet name="Model 3" sheetId="4" r:id="rId8"/>
+    <sheet name="Model 4" sheetId="7" r:id="rId9"/>
+    <sheet name="Model 5" sheetId="8" r:id="rId10"/>
+    <sheet name="Model 7" sheetId="13" r:id="rId11"/>
+    <sheet name="Model 6" sheetId="9" r:id="rId12"/>
+    <sheet name="Model 8" sheetId="16" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="202">
   <si>
     <t>Real GDP growth, adjusted ( 1 )</t>
   </si>
@@ -231,9 +235,6 @@
     </r>
   </si>
   <si>
-    <t>(RWA/TIER1) t −1 x × ΔMP</t>
-  </si>
-  <si>
     <t>0.473***</t>
   </si>
   <si>
@@ -600,6 +601,94 @@
   <si>
     <t>Dummy that takes the value of 1 if a bank
 reported under IFRS and 0 elsewhere</t>
+  </si>
+  <si>
+    <t>Dependent variable: average growth rate of common equity</t>
+  </si>
+  <si>
+    <t>0.805***</t>
+  </si>
+  <si>
+    <t>0.821***</t>
+  </si>
+  <si>
+    <t>0.007***</t>
+  </si>
+  <si>
+    <t>((Total assets/Equity) ×100) t −1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authors Findings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our Findings </t>
+  </si>
+  <si>
+    <t>(Market value of bank
+assets/market value of bank’s equity) t −1</t>
+  </si>
+  <si>
+    <t>Proposition</t>
+  </si>
+  <si>
+    <t>Average cost of funding 
+(I)</t>
+  </si>
+  <si>
+    <t>Dependent variable</t>
+  </si>
+  <si>
+    <t>Growth rate of lending 
+(III)</t>
+  </si>
+  <si>
+    <t>Growth rate of debt financing
+(II)</t>
+  </si>
+  <si>
+    <t>Average cost of funding 
+(IV)</t>
+  </si>
+  <si>
+    <t>Growth rate of debt financing
+(V)</t>
+  </si>
+  <si>
+    <t>Growth rate of lending 
+(VI)</t>
+  </si>
+  <si>
+    <t>(RWA/TIER1) t −1 × ΔMP</t>
+  </si>
+  <si>
+    <t>(i) Bank equity has an elasticity of greater than one with respect to total assets</t>
+  </si>
+  <si>
+    <t>(ii) Bank equity is positively correlated with cyclical conditions. It increases in a boom and decreases in a bust</t>
+  </si>
+  <si>
+    <t>(iii) Less leveraged banks pay less for their debt funding</t>
+  </si>
+  <si>
+    <t>(iv) Less leveraged banks get more debt funding</t>
+  </si>
+  <si>
+    <t>(v) Less leveraged banks supply more lending</t>
+  </si>
+  <si>
+    <t>(vi) The effects of (iii)–(v) should be less pronounced (not significant) when controlling for market leverage, which is influenced by more volatile financial conditions</t>
+  </si>
+  <si>
+    <t>Not necessarily (MP matters)</t>
+  </si>
+  <si>
+    <t>Not necessarily (efficiency)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opposite is also TRUE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partially TRUE </t>
   </si>
 </sst>
 </file>
@@ -610,7 +699,7 @@
     <numFmt numFmtId="164" formatCode="\(0.000\)"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,8 +758,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -680,6 +776,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,7 +847,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -954,6 +1056,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1839,6 +1986,1115 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2CAEC9-F921-433B-B5D5-528938A1BDEE}">
+  <dimension ref="B3:L17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="33.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="1" customWidth="1"/>
+    <col min="4" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="9.44140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5"/>
+    </row>
+    <row r="6" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D6" s="7">
+        <v>0.129</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="7">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="J6"/>
+    </row>
+    <row r="7" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10">
+        <v>-8.3000000000000004E-2</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="1">
+        <v>-0.38100000000000001</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="13">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="K10"/>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11"/>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="10">
+        <v>681</v>
+      </c>
+      <c r="E16" s="10">
+        <v>681</v>
+      </c>
+      <c r="F16" s="10">
+        <v>681</v>
+      </c>
+      <c r="G16" s="10">
+        <v>655</v>
+      </c>
+      <c r="H16" s="10">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="23">
+        <v>0.23350000000000001</v>
+      </c>
+      <c r="E17" s="23">
+        <v>9.1319999999999998E-2</v>
+      </c>
+      <c r="F17" s="23">
+        <v>0.43509999999999999</v>
+      </c>
+      <c r="G17" s="23">
+        <v>0</v>
+      </c>
+      <c r="H17" s="23">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2A179F-EE4F-4E19-B3AD-458B8B243309}">
+  <dimension ref="B3:K17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L10" sqref="L1:Q1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="33.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="1" customWidth="1"/>
+    <col min="4" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="13.88671875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="8.88671875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="J5"/>
+    </row>
+    <row r="6" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D6" s="7">
+        <v>0.114</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="7">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="J6"/>
+    </row>
+    <row r="7" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="1">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13">
+        <v>0.246</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13">
+        <v>0.26</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="K10"/>
+    </row>
+    <row r="11" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="10">
+        <v>681</v>
+      </c>
+      <c r="E16" s="10">
+        <v>681</v>
+      </c>
+      <c r="F16" s="10">
+        <v>681</v>
+      </c>
+      <c r="G16" s="10">
+        <v>681</v>
+      </c>
+      <c r="H16" s="10">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="23">
+        <v>5.1960000000000001E-3</v>
+      </c>
+      <c r="E17" s="23">
+        <v>0.22439999999999999</v>
+      </c>
+      <c r="F17" s="23">
+        <v>1.179E-2</v>
+      </c>
+      <c r="G17" s="23">
+        <v>0.50860000000000005</v>
+      </c>
+      <c r="H17" s="23">
+        <v>9.7459999999999995E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFBAB28-B1C6-4F7F-BC7D-14464EE09FF9}">
+  <dimension ref="B3:K20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="38.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D6" s="13">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10">
+        <v>-0.26500000000000001</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B9" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="10">
+        <v>-2E-3</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D10" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+    </row>
+    <row r="14" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14"/>
+      <c r="K14"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="10">
+        <v>681</v>
+      </c>
+      <c r="E19" s="10">
+        <v>681</v>
+      </c>
+      <c r="F19" s="10">
+        <v>681</v>
+      </c>
+      <c r="G19" s="10">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="88">
+        <v>0.49609999999999999</v>
+      </c>
+      <c r="E20" s="88">
+        <v>0.36480000000000001</v>
+      </c>
+      <c r="F20" s="88">
+        <v>6.4280000000000004E-2</v>
+      </c>
+      <c r="G20" s="88">
+        <v>0.1646</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC01E1D-AC22-4042-9198-D95D290AB819}">
+  <dimension ref="B3:L14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="76"/>
+    <col min="2" max="2" width="35.109375" style="76" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="76" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" style="76" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="76" customWidth="1"/>
+    <col min="6" max="6" width="7" style="76" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="76"/>
+    <col min="8" max="8" width="10.21875" style="76" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" style="76" customWidth="1"/>
+    <col min="10" max="11" width="8.88671875" style="76"/>
+    <col min="12" max="12" width="8.88671875" style="76" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="76"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="80"/>
+      <c r="D3" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="2:12" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="87" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="87" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="G4" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="H4" s="87" t="s">
+        <v>189</v>
+      </c>
+      <c r="I4" s="87" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B5" s="79" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="77">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E5" s="77">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F5" s="77">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="G5" s="77">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H5" s="77">
+        <v>-2.9999999999999997E-4</v>
+      </c>
+      <c r="I5" s="77">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K5" s="78"/>
+    </row>
+    <row r="6" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D6" s="82">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E6" s="82">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F6" s="82">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G6" s="82">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H6" s="82">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="I6" s="82">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="K6" s="78"/>
+    </row>
+    <row r="7" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="K7" s="78"/>
+    </row>
+    <row r="8" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B8" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="78"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="77" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="77" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="77" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="77" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="77">
+        <v>681</v>
+      </c>
+      <c r="E13" s="77">
+        <v>681</v>
+      </c>
+      <c r="F13" s="77">
+        <v>681</v>
+      </c>
+      <c r="G13" s="77">
+        <v>681</v>
+      </c>
+      <c r="H13" s="77">
+        <v>681</v>
+      </c>
+      <c r="I13" s="77">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="81"/>
+      <c r="D14" s="23">
+        <v>0.91659999999999997</v>
+      </c>
+      <c r="E14" s="23">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="F14" s="23">
+        <v>0.13569999999999999</v>
+      </c>
+      <c r="G14" s="23">
+        <v>0.9214</v>
+      </c>
+      <c r="H14" s="23">
+        <v>0.7752</v>
+      </c>
+      <c r="I14" s="23">
+        <v>0.3256</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7C8D58-568F-4752-BFE8-00D20CB881B7}">
   <sheetPr>
@@ -1847,7 +3103,7 @@
   <dimension ref="B3:AA34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1873,23 +3129,23 @@
     <row r="3" spans="2:27" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:27" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="25"/>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="76" t="s">
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="S4" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="S4" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="T4" s="12"/>
       <c r="U4" s="12"/>
@@ -1902,33 +3158,33 @@
     </row>
     <row r="5" spans="2:27" s="28" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="B5" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="D5" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="E5" s="27" t="s">
         <v>66</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>67</v>
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I5" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="K5" s="27" t="s">
         <v>66</v>
-      </c>
-      <c r="K5" s="27" t="s">
-        <v>67</v>
       </c>
       <c r="L5" s="27"/>
       <c r="M5" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S5" s="12"/>
       <c r="T5" s="12"/>
@@ -1942,7 +3198,7 @@
     </row>
     <row r="6" spans="2:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="30">
         <v>27</v>
@@ -1951,7 +3207,7 @@
         <v>26</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F6" s="30"/>
       <c r="G6" s="30">
@@ -1965,43 +3221,43 @@
         <v>3</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L6" s="30"/>
       <c r="M6" s="30">
         <v>26</v>
       </c>
       <c r="S6" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="T6" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="T6" s="32" t="s">
+      <c r="U6" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="U6" s="32" t="s">
+      <c r="V6" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="V6" s="32" t="s">
+      <c r="W6" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="W6" s="32" t="s">
+      <c r="X6" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="X6" s="32" t="s">
+      <c r="Y6" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="Y6" s="32" t="s">
+      <c r="Z6" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="Z6" s="32" t="s">
+      <c r="AA6" s="32" t="s">
         <v>77</v>
-      </c>
-      <c r="AA6" s="32" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="7" spans="2:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B7" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="30">
         <v>423</v>
@@ -2010,7 +3266,7 @@
         <v>369</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F7" s="30"/>
       <c r="G7" s="30">
@@ -2024,14 +3280,14 @@
         <v>101</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L7" s="30"/>
       <c r="M7" s="30">
         <v>709</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T7" s="33">
         <v>24</v>
@@ -2060,7 +3316,7 @@
     </row>
     <row r="8" spans="2:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="35">
         <v>268.7</v>
@@ -2072,7 +3328,7 @@
         <v>-408.1</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G8" s="35">
         <v>402.6</v>
@@ -2092,7 +3348,7 @@
         <v>628.63</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T8" s="33">
         <v>32</v>
@@ -2121,7 +3377,7 @@
     </row>
     <row r="9" spans="2:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B9" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="35">
         <v>2.6</v>
@@ -2133,7 +3389,7 @@
         <v>-0.9</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G9" s="35">
         <v>3.1</v>
@@ -2149,13 +3405,13 @@
         <v>-0.2</v>
       </c>
       <c r="L9" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M9" s="35">
         <v>2.89</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T9" s="33">
         <v>24</v>
@@ -2184,7 +3440,7 @@
     </row>
     <row r="10" spans="2:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B10" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="35">
         <v>8.0500000000000007</v>
@@ -2196,7 +3452,7 @@
         <v>1.83</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G10" s="35">
         <v>8.56</v>
@@ -2216,7 +3472,7 @@
         <v>8.98</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T10" s="33">
         <v>32</v>
@@ -2245,7 +3501,7 @@
     </row>
     <row r="11" spans="2:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="35">
         <v>7.41</v>
@@ -2257,7 +3513,7 @@
         <v>2.77</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G11" s="35">
         <v>7.52</v>
@@ -2277,7 +3533,7 @@
         <v>8.1</v>
       </c>
       <c r="S11" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T11" s="33">
         <v>34</v>
@@ -2306,7 +3562,7 @@
     </row>
     <row r="12" spans="2:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B12" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="35">
         <v>4.0199999999999996</v>
@@ -2318,7 +3574,7 @@
         <v>-1</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G12" s="35">
         <v>4.82</v>
@@ -2338,7 +3594,7 @@
         <v>12.43</v>
       </c>
       <c r="S12" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T12" s="33">
         <v>31</v>
@@ -2367,7 +3623,7 @@
     </row>
     <row r="13" spans="2:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B13" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="35">
         <v>0.95</v>
@@ -2379,7 +3635,7 @@
         <v>0.76</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G13" s="35">
         <v>0.57999999999999996</v>
@@ -2395,13 +3651,13 @@
         <v>0.89000000000000012</v>
       </c>
       <c r="L13" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M13" s="35">
         <v>0.8</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T13" s="33">
         <v>24</v>
@@ -2430,7 +3686,7 @@
     </row>
     <row r="14" spans="2:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B14" s="37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="38">
         <v>31.59</v>
@@ -2442,29 +3698,29 @@
         <v>14.5</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G14" s="38">
         <v>22.99</v>
       </c>
       <c r="H14" s="38"/>
       <c r="I14" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="L14" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="M14" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="S14" s="12" t="s">
         <v>97</v>
-      </c>
-      <c r="J14" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="K14" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="L14" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="M14" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="S14" s="12" t="s">
-        <v>98</v>
       </c>
       <c r="T14" s="33">
         <v>24</v>
@@ -2493,7 +3749,7 @@
     </row>
     <row r="15" spans="2:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="S15" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T15" s="33">
         <v>34</v>
@@ -2522,7 +3778,7 @@
     </row>
     <row r="16" spans="2:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="S16" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T16" s="33">
         <v>33</v>
@@ -2551,7 +3807,7 @@
     </row>
     <row r="17" spans="19:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="S17" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T17" s="33">
         <v>24</v>
@@ -2580,7 +3836,7 @@
     </row>
     <row r="18" spans="19:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="S18" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T18" s="33">
         <v>31</v>
@@ -2609,7 +3865,7 @@
     </row>
     <row r="19" spans="19:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="S19" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="T19" s="33">
         <v>19</v>
@@ -2638,7 +3894,7 @@
     </row>
     <row r="20" spans="19:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="S20" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T20" s="33">
         <v>24</v>
@@ -2667,7 +3923,7 @@
     </row>
     <row r="21" spans="19:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="S21" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T21" s="33">
         <v>27</v>
@@ -2696,7 +3952,7 @@
     </row>
     <row r="22" spans="19:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="S22" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T22" s="33">
         <v>24</v>
@@ -2725,7 +3981,7 @@
     </row>
     <row r="23" spans="19:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="S23" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T23" s="33">
         <v>28</v>
@@ -2754,7 +4010,7 @@
     </row>
     <row r="24" spans="19:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="S24" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T24" s="33">
         <v>24</v>
@@ -2783,7 +4039,7 @@
     </row>
     <row r="25" spans="19:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="S25" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T25" s="33">
         <v>24</v>
@@ -2812,7 +4068,7 @@
     </row>
     <row r="26" spans="19:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="S26" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T26" s="33">
         <v>31</v>
@@ -2841,7 +4097,7 @@
     </row>
     <row r="27" spans="19:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="S27" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T27" s="33">
         <v>24</v>
@@ -2870,7 +4126,7 @@
     </row>
     <row r="28" spans="19:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="S28" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T28" s="33">
         <v>33</v>
@@ -2899,7 +4155,7 @@
     </row>
     <row r="29" spans="19:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="S29" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T29" s="33">
         <v>24</v>
@@ -2928,7 +4184,7 @@
     </row>
     <row r="30" spans="19:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="S30" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T30" s="33">
         <v>32</v>
@@ -2957,7 +4213,7 @@
     </row>
     <row r="31" spans="19:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="S31" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T31" s="33">
         <v>24</v>
@@ -2986,7 +4242,7 @@
     </row>
     <row r="32" spans="19:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="S32" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T32" s="41">
         <v>24</v>
@@ -3066,8 +4322,8 @@
   </sheetPr>
   <dimension ref="B1:T34"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3117,75 +4373,75 @@
       <c r="T4" s="49"/>
     </row>
     <row r="5" spans="2:20" ht="25.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="J5" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="J5" s="78" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
       <c r="T5" s="49"/>
     </row>
     <row r="6" spans="2:20" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="D6" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="58" t="s">
+      <c r="G6" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="H6" s="58" t="s">
         <v>120</v>
-      </c>
-      <c r="H6" s="58" t="s">
-        <v>121</v>
       </c>
       <c r="I6" s="54"/>
       <c r="J6" s="57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K6" s="58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L6" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="M6" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="M6" s="58" t="s">
+      <c r="N6" s="58" t="s">
         <v>120</v>
-      </c>
-      <c r="N6" s="58" t="s">
-        <v>121</v>
       </c>
       <c r="T6" s="49"/>
     </row>
     <row r="7" spans="2:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B7" s="59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T7" s="49"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="60" t="s">
         <v>123</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>124</v>
       </c>
       <c r="D8" s="61">
         <v>1587</v>
@@ -3197,7 +4453,7 @@
         <v>1.3919999999999999</v>
       </c>
       <c r="G8" s="62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H8" s="62">
         <v>5.3979999999999997</v>
@@ -3222,10 +4478,10 @@
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="65" t="s">
         <v>126</v>
-      </c>
-      <c r="C9" s="65" t="s">
-        <v>127</v>
       </c>
       <c r="D9" s="47">
         <v>1587</v>
@@ -3261,10 +4517,10 @@
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="65" t="s">
         <v>128</v>
-      </c>
-      <c r="C10" s="65" t="s">
-        <v>129</v>
       </c>
       <c r="D10" s="47">
         <v>1587</v>
@@ -3276,7 +4532,7 @@
         <v>17.102</v>
       </c>
       <c r="G10" s="48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H10" s="48">
         <v>79.62</v>
@@ -3300,10 +4556,10 @@
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="65" t="s">
         <v>131</v>
-      </c>
-      <c r="C11" s="65" t="s">
-        <v>132</v>
       </c>
       <c r="D11" s="47">
         <v>1278</v>
@@ -3315,7 +4571,7 @@
         <v>0.158</v>
       </c>
       <c r="G11" s="48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H11" s="48">
         <v>1.349</v>
@@ -3339,10 +4595,10 @@
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B12" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="65" t="s">
         <v>134</v>
-      </c>
-      <c r="C12" s="65" t="s">
-        <v>135</v>
       </c>
       <c r="D12" s="47">
         <v>1587</v>
@@ -3378,10 +4634,10 @@
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="65" t="s">
         <v>136</v>
-      </c>
-      <c r="C13" s="65" t="s">
-        <v>137</v>
       </c>
       <c r="D13" s="47">
         <v>1587</v>
@@ -3393,7 +4649,7 @@
         <v>13.747999999999999</v>
       </c>
       <c r="G13" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H13" s="48">
         <v>94.611999999999995</v>
@@ -3417,10 +4673,10 @@
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="65" t="s">
         <v>139</v>
-      </c>
-      <c r="C14" s="65" t="s">
-        <v>140</v>
       </c>
       <c r="D14" s="47">
         <v>1587</v>
@@ -3432,7 +4688,7 @@
         <v>12.02</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H14" s="48">
         <v>72.616</v>
@@ -3456,10 +4712,10 @@
     </row>
     <row r="15" spans="2:20" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B15" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="65" t="s">
         <v>142</v>
-      </c>
-      <c r="C15" s="65" t="s">
-        <v>143</v>
       </c>
       <c r="D15" s="47">
         <v>1587</v>
@@ -3495,10 +4751,10 @@
     </row>
     <row r="16" spans="2:20" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B16" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="65" t="s">
         <v>144</v>
-      </c>
-      <c r="C16" s="65" t="s">
-        <v>145</v>
       </c>
       <c r="D16" s="47">
         <v>1331</v>
@@ -3516,28 +4772,28 @@
         <v>99.588999999999999</v>
       </c>
       <c r="J16" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K16" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L16" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M16" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N16" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T16" s="49"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="65" t="s">
         <v>146</v>
-      </c>
-      <c r="C17" s="65" t="s">
-        <v>147</v>
       </c>
       <c r="D17" s="47">
         <v>1442</v>
@@ -3573,10 +4829,10 @@
     </row>
     <row r="18" spans="2:20" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B18" s="67" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="67" t="s">
         <v>148</v>
-      </c>
-      <c r="C18" s="67" t="s">
-        <v>149</v>
       </c>
       <c r="D18" s="68">
         <v>958</v>
@@ -3618,16 +4874,16 @@
     </row>
     <row r="20" spans="2:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B20" s="59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T20" s="49"/>
     </row>
     <row r="21" spans="2:20" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B21" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="60" t="s">
         <v>151</v>
-      </c>
-      <c r="C21" s="60" t="s">
-        <v>152</v>
       </c>
       <c r="D21" s="61">
         <v>1587</v>
@@ -3664,10 +4920,10 @@
     </row>
     <row r="22" spans="2:20" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B22" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="65" t="s">
         <v>153</v>
-      </c>
-      <c r="C22" s="65" t="s">
-        <v>154</v>
       </c>
       <c r="D22" s="47">
         <v>1587</v>
@@ -3679,7 +4935,7 @@
         <v>0.64</v>
       </c>
       <c r="G22" s="48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H22" s="48">
         <v>3.7040000000000002</v>
@@ -3703,10 +4959,10 @@
     </row>
     <row r="23" spans="2:20" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B23" s="67" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="67" t="s">
         <v>156</v>
-      </c>
-      <c r="C23" s="67" t="s">
-        <v>157</v>
       </c>
       <c r="D23" s="68">
         <v>1587</v>
@@ -3725,19 +4981,19 @@
       </c>
       <c r="I23" s="54"/>
       <c r="J23" s="68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K23" s="68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L23" s="68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M23" s="68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N23" s="68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T23" s="49"/>
     </row>
@@ -3748,17 +5004,17 @@
     </row>
     <row r="25" spans="2:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B25" s="70" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C25" s="65"/>
       <c r="T25" s="49"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B26" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" s="60" t="s">
         <v>159</v>
-      </c>
-      <c r="C26" s="60" t="s">
-        <v>160</v>
       </c>
       <c r="D26" s="61">
         <v>1587</v>
@@ -3770,7 +5026,7 @@
         <v>1.984</v>
       </c>
       <c r="G26" s="62" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H26" s="62">
         <v>5.9249999999999998</v>
@@ -3795,10 +5051,10 @@
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B27" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" s="65" t="s">
         <v>162</v>
-      </c>
-      <c r="C27" s="65" t="s">
-        <v>163</v>
       </c>
       <c r="D27" s="47">
         <v>1587</v>
@@ -3810,7 +5066,7 @@
         <v>18.03</v>
       </c>
       <c r="G27" s="48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H27" s="48">
         <v>54.362000000000002</v>
@@ -3834,22 +5090,22 @@
     </row>
     <row r="28" spans="2:20" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B28" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="65" t="s">
         <v>165</v>
-      </c>
-      <c r="C28" s="65" t="s">
-        <v>166</v>
       </c>
       <c r="D28" s="47">
         <v>1587</v>
       </c>
       <c r="E28" s="48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F28" s="48">
         <v>1.1579999999999999</v>
       </c>
       <c r="G28" s="48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H28" s="48">
         <v>1.7669999999999999</v>
@@ -3873,10 +5129,10 @@
     </row>
     <row r="29" spans="2:20" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B29" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" s="67" t="s">
         <v>169</v>
-      </c>
-      <c r="C29" s="67" t="s">
-        <v>170</v>
       </c>
       <c r="D29" s="68">
         <v>1587</v>
@@ -3918,17 +5174,17 @@
     </row>
     <row r="31" spans="2:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B31" s="70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C31" s="65"/>
       <c r="T31" s="49"/>
     </row>
     <row r="32" spans="2:20" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B32" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="60" t="s">
         <v>172</v>
-      </c>
-      <c r="C32" s="60" t="s">
-        <v>173</v>
       </c>
       <c r="D32" s="61">
         <v>1587</v>
@@ -3965,10 +5221,10 @@
     </row>
     <row r="33" spans="2:20" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33" s="71" t="s">
         <v>174</v>
-      </c>
-      <c r="C33" s="71" t="s">
-        <v>175</v>
       </c>
       <c r="D33" s="72">
         <v>1587</v>
@@ -4016,11 +5272,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F86D61-5B96-4CE7-935E-7E3E53A15837}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544469A4-64A6-492F-BA42-521F62C3CD84}">
   <dimension ref="B2:G13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4201,12 +5471,113 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989893A2-16EB-4647-927A-51A2DCA527D1}">
+  <dimension ref="C4:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="29"/>
+    <col min="2" max="2" width="2.44140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="69.44140625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" style="29" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:5" s="83" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="90" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="90" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="90" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" ht="23.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="84" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="84" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="85" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" s="86" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9283D0F-26B8-4976-A700-FD797AC4B002}">
   <dimension ref="B3:O18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4591,12 +5962,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298FD855-89C8-46BB-A45C-10D35FE026C3}">
   <dimension ref="B3:L17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4865,12 +6236,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD575AE-C31C-44E0-BBBF-FAF07299D8E9}">
   <dimension ref="B3:K16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4891,7 +6262,7 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
@@ -5097,559 +6468,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2CAEC9-F921-433B-B5D5-528938A1BDEE}">
-  <dimension ref="B3:L17"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="33.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.33203125" style="1" customWidth="1"/>
-    <col min="4" max="7" width="8.88671875" style="1"/>
-    <col min="8" max="8" width="9.44140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-    </row>
-    <row r="4" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5"/>
-    </row>
-    <row r="6" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D6" s="7">
-        <v>0.129</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="7">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="J6"/>
-    </row>
-    <row r="7" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10">
-        <v>-8.3000000000000004E-2</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="1">
-        <v>-0.38100000000000001</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D8" s="13"/>
-      <c r="E8" s="13">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="H8" s="13"/>
-      <c r="J8"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="13">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="K10"/>
-      <c r="L10"/>
-    </row>
-    <row r="11" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11"/>
-      <c r="L11"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="10">
-        <v>681</v>
-      </c>
-      <c r="E16" s="10">
-        <v>681</v>
-      </c>
-      <c r="F16" s="10">
-        <v>681</v>
-      </c>
-      <c r="G16" s="10">
-        <v>655</v>
-      </c>
-      <c r="H16" s="10">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="23">
-        <v>0.23350000000000001</v>
-      </c>
-      <c r="E17" s="23">
-        <v>9.1319999999999998E-2</v>
-      </c>
-      <c r="F17" s="23">
-        <v>0.43509999999999999</v>
-      </c>
-      <c r="G17" s="23">
-        <v>0</v>
-      </c>
-      <c r="H17" s="23">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFBAB28-B1C6-4F7F-BC7D-14464EE09FF9}">
-  <dimension ref="B3:K20"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="38.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="I5"/>
-    </row>
-    <row r="6" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D6" s="13">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="I6"/>
-    </row>
-    <row r="7" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="1">
-        <v>-0.26500000000000001</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D8" s="13"/>
-      <c r="E8" s="13">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="I8"/>
-    </row>
-    <row r="9" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B9" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="1">
-        <v>-2E-3</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9"/>
-    </row>
-    <row r="10" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D10" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="I10"/>
-    </row>
-    <row r="11" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="10">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="I11"/>
-    </row>
-    <row r="12" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D12" s="13"/>
-      <c r="E12" s="13">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="I12"/>
-    </row>
-    <row r="13" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="7"/>
-      <c r="J13"/>
-      <c r="K13"/>
-    </row>
-    <row r="14" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14"/>
-      <c r="K14"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="10">
-        <v>681</v>
-      </c>
-      <c r="E19" s="10">
-        <v>681</v>
-      </c>
-      <c r="F19" s="10">
-        <v>681</v>
-      </c>
-      <c r="G19" s="10">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="23">
-        <v>0.49609999999999999</v>
-      </c>
-      <c r="E20" s="23">
-        <v>0.36480000000000001</v>
-      </c>
-      <c r="F20" s="23">
-        <v>6.4280000000000004E-2</v>
-      </c>
-      <c r="G20" s="23">
-        <v>0.1646</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>